--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39CBDE-9F9B-4518-B011-ABC914135381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453FC2-0EE8-4B71-B2A0-7E443A898192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Phan Ngọc Hiếu</t>
   </si>
@@ -87,21 +87,6 @@
   </si>
   <si>
     <t>27/3/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/03: Xin về sớm
-13/03: Đi trễ
-16/03: Đi trễ
-16/03: Xin về sơm
-23/03: Chưa chuẩn bị bài
-29/03: Chưa làm bài
-</t>
-  </si>
-  <si>
-    <t>16/03: Đi trể
-17/03: Xin nghỉ 1 ngày
-27/03: Đi trể sáng
-28/03, 29/03: Xin nghỉ</t>
   </si>
   <si>
     <t>13/03: Chưa soạn bài
@@ -110,6 +95,27 @@
 29/03: Xin nghỉ
 20/03: Chưa làm bài tập
 23/03: Chưa chuẩn bị bài</t>
+  </si>
+  <si>
+    <t>10/03: Xin về sớm
+13/03: Đi trễ
+16/03: Đi trễ
+16/03: Xin về sơm
+23/03: Chưa chuẩn bị bài
+29/03: Chưa làm bài
+30/03: Xin về sớm</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>30/03: Xin về sớm</t>
+  </si>
+  <si>
+    <t>16/03: Đi trể
+17/03: Xin nghỉ 1 ngày
+27/03: Đi trể sáng
+28/03, 29/03, 30/3: Xin nghỉ</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -479,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -487,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -512,6 +518,14 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453FC2-0EE8-4B71-B2A0-7E443A898192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E51E88A-29B6-48BB-B57F-D267505E801B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Phan Ngọc Hiếu</t>
   </si>
@@ -97,25 +97,38 @@
 23/03: Chưa chuẩn bị bài</t>
   </si>
   <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>30/03: Xin về sớm</t>
+  </si>
+  <si>
+    <t>16/03: Đi trể
+17/03: Xin nghỉ 1 ngày
+27/03: Đi trể sáng
+28/03, 29/03, 30/3: Xin nghỉ</t>
+  </si>
+  <si>
+    <t>Lực</t>
+  </si>
+  <si>
+    <t>31/3: đi trễ</t>
+  </si>
+  <si>
     <t>10/03: Xin về sớm
 13/03: Đi trễ
 16/03: Đi trễ
 16/03: Xin về sơm
 23/03: Chưa chuẩn bị bài
 29/03: Chưa làm bài
-30/03: Xin về sớm</t>
-  </si>
-  <si>
-    <t>Đạt</t>
-  </si>
-  <si>
-    <t>30/03: Xin về sớm</t>
-  </si>
-  <si>
-    <t>16/03: Đi trể
-17/03: Xin nghỉ 1 ngày
-27/03: Đi trể sáng
-28/03, 29/03, 30/3: Xin nghỉ</t>
+30/03: Xin về sớm
+04/04: Ngủ quyên buổi chiều</t>
+  </si>
+  <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>04/04; ko soạn bài</t>
   </si>
 </sst>
 </file>
@@ -437,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -493,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -522,10 +535,26 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E51E88A-29B6-48BB-B57F-D267505E801B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ACD5A7-76E7-4640-9972-91BBB37F7EDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,6 +115,12 @@
     <t>31/3: đi trễ</t>
   </si>
   <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>04/04; ko soạn bài</t>
+  </si>
+  <si>
     <t>10/03: Xin về sớm
 13/03: Đi trễ
 16/03: Đi trễ
@@ -122,13 +128,8 @@
 23/03: Chưa chuẩn bị bài
 29/03: Chưa làm bài
 30/03: Xin về sớm
-04/04: Ngủ quyên buổi chiều</t>
-  </si>
-  <si>
-    <t>Bảo</t>
-  </si>
-  <si>
-    <t>04/04; ko soạn bài</t>
+04/04: Ngủ quyên buổi
+07/04: đi trể chiều</t>
   </si>
 </sst>
 </file>
@@ -452,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,10 +552,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
